--- a/print_costs.xlsx
+++ b/print_costs.xlsx
@@ -77,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -95,6 +95,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -82912,7 +82915,20 @@
       </c>
     </row>
     <row r="11" ht="16.5" customHeight="1"/>
-    <row r="12" ht="16.5" customHeight="1"/>
+    <row r="12" ht="16.5" customHeight="1">
+      <c r="F12" s="6">
+        <v>29.0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>34.0</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>52.0</v>
+      </c>
+      <c r="AV12" s="6">
+        <v>69.0</v>
+      </c>
+    </row>
     <row r="13" ht="16.5" customHeight="1"/>
     <row r="14" ht="16.5" customHeight="1"/>
     <row r="15" ht="16.5" customHeight="1"/>

--- a/print_costs.xlsx
+++ b/print_costs.xlsx
@@ -82916,17 +82916,20 @@
     </row>
     <row r="11" ht="16.5" customHeight="1"/>
     <row r="12" ht="16.5" customHeight="1">
+      <c r="C12" s="6">
+        <v>25.0</v>
+      </c>
       <c r="F12" s="6">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="L12" s="6">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
       <c r="AA12" s="6">
-        <v>52.0</v>
+        <v>58.0</v>
       </c>
       <c r="AV12" s="6">
-        <v>69.0</v>
+        <v>83.0</v>
       </c>
     </row>
     <row r="13" ht="16.5" customHeight="1"/>

--- a/print_costs.xlsx
+++ b/print_costs.xlsx
@@ -77,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -95,6 +95,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -65928,403 +65931,402 @@
     </row>
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:CV9" si="2">0.0725*A1^0.687</f>
+        <f t="shared" ref="A9:B9" si="2">0.0725*A1^0.687</f>
         <v>1.715291781</v>
       </c>
       <c r="B9" s="5">
         <f t="shared" si="2"/>
         <v>2.761503599</v>
       </c>
-      <c r="C9" s="5">
-        <f t="shared" si="2"/>
-        <v>3.648550053</v>
+      <c r="C9" s="6">
+        <v>4.55</v>
       </c>
       <c r="D9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D9:CV9" si="3">0.0725*D1^0.687</f>
         <v>4.445833773</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.182393662</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.873918488</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.53010794</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.157491281</v>
       </c>
       <c r="I9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.760730647</v>
       </c>
       <c r="J9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.34330282</v>
       </c>
       <c r="K9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.907888683</v>
       </c>
       <c r="L9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.456610957</v>
       </c>
       <c r="M9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.991187048</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.51303153</v>
       </c>
       <c r="O9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.02332728</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.52307622</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.0131366</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.49425075</v>
       </c>
       <c r="S9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12.96706627</v>
       </c>
       <c r="T9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.43215249</v>
       </c>
       <c r="U9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.89001331</v>
       </c>
       <c r="V9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.3410975</v>
       </c>
       <c r="W9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.78580689</v>
       </c>
       <c r="X9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.22450319</v>
       </c>
       <c r="Y9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.65751342</v>
       </c>
       <c r="Z9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.0851345</v>
       </c>
       <c r="AA9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.50763709</v>
       </c>
       <c r="AB9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.92526878</v>
       </c>
       <c r="AC9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.3382568</v>
       </c>
       <c r="AD9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.74681036</v>
       </c>
       <c r="AE9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.1511226</v>
       </c>
       <c r="AF9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.55137232</v>
       </c>
       <c r="AG9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.94772545</v>
       </c>
       <c r="AH9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.34033635</v>
       </c>
       <c r="AI9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.7293489</v>
       </c>
       <c r="AJ9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.11489753</v>
       </c>
       <c r="AK9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.49710807</v>
       </c>
       <c r="AL9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.87609851</v>
       </c>
       <c r="AM9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.25197966</v>
       </c>
       <c r="AN9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.62485582</v>
       </c>
       <c r="AO9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.99482527</v>
       </c>
       <c r="AP9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.36198074</v>
       </c>
       <c r="AQ9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.7264099</v>
       </c>
       <c r="AR9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.08819572</v>
       </c>
       <c r="AS9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.4474168</v>
       </c>
       <c r="AT9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.80414773</v>
       </c>
       <c r="AU9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.15845936</v>
       </c>
       <c r="AV9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.51041907</v>
       </c>
       <c r="AW9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.86009097</v>
       </c>
       <c r="AX9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.2075362</v>
       </c>
       <c r="AY9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.55281305</v>
       </c>
       <c r="AZ9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.89597718</v>
       </c>
       <c r="BA9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.23708178</v>
       </c>
       <c r="BB9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.57617773</v>
       </c>
       <c r="BC9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.91331374</v>
       </c>
       <c r="BD9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.24853647</v>
       </c>
       <c r="BE9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.58189065</v>
       </c>
       <c r="BF9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.91341922</v>
       </c>
       <c r="BG9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.2431634</v>
       </c>
       <c r="BH9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.57116278</v>
       </c>
       <c r="BI9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.89745547</v>
       </c>
       <c r="BJ9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.22207811</v>
       </c>
       <c r="BK9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.54506597</v>
       </c>
       <c r="BL9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29.86645305</v>
       </c>
       <c r="BM9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.18627211</v>
       </c>
       <c r="BN9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.50455475</v>
       </c>
       <c r="BO9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30.82133146</v>
       </c>
       <c r="BP9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.1366317</v>
       </c>
       <c r="BQ9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.4504839</v>
       </c>
       <c r="BR9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31.76291556</v>
       </c>
       <c r="BS9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.07395327</v>
       </c>
       <c r="BT9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.38362275</v>
       </c>
       <c r="BU9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.6919489</v>
       </c>
       <c r="BV9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.99895584</v>
       </c>
       <c r="BW9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.30466691</v>
       </c>
       <c r="BX9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.60910477</v>
       </c>
       <c r="BY9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.91229135</v>
       </c>
       <c r="BZ9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.21424797</v>
       </c>
       <c r="CA9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.51499528</v>
       </c>
       <c r="CB9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.81455334</v>
       </c>
       <c r="CC9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.11294163</v>
       </c>
       <c r="CD9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.41017908</v>
       </c>
       <c r="CE9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.70628409</v>
       </c>
       <c r="CF9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.00127453</v>
       </c>
       <c r="CG9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.2951678</v>
       </c>
       <c r="CH9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.58798081</v>
       </c>
       <c r="CI9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.87973002</v>
       </c>
       <c r="CJ9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.17043147</v>
       </c>
       <c r="CK9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.46010075</v>
       </c>
       <c r="CL9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.74875308</v>
       </c>
       <c r="CM9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.03640326</v>
       </c>
       <c r="CN9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.32306572</v>
       </c>
       <c r="CO9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.60875455</v>
       </c>
       <c r="CP9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.89348345</v>
       </c>
       <c r="CQ9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.17726583</v>
       </c>
       <c r="CR9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.46011473</v>
       </c>
       <c r="CS9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.74204292</v>
       </c>
       <c r="CT9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.02306282</v>
       </c>
       <c r="CU9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.3031866</v>
       </c>
       <c r="CV9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.58242611</v>
       </c>
       <c r="CW9" s="5"/>
@@ -82916,25 +82918,39 @@
     </row>
     <row r="11" ht="16.5" customHeight="1"/>
     <row r="12" ht="16.5" customHeight="1">
-      <c r="C12" s="6">
+      <c r="C12" s="7">
         <v>25.0</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>31.0</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="7">
         <v>38.0</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="7">
         <v>58.0</v>
       </c>
-      <c r="AV12" s="6">
+      <c r="AV12" s="7">
         <v>83.0</v>
       </c>
     </row>
-    <row r="13" ht="16.5" customHeight="1"/>
-    <row r="14" ht="16.5" customHeight="1"/>
-    <row r="15" ht="16.5" customHeight="1"/>
+    <row r="13" ht="16.5" customHeight="1">
+      <c r="F13" s="7">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c r="F14" s="1">
+        <f>F13/F12</f>
+        <v>0.935483871</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c r="F15" s="7">
+        <f>1-F14</f>
+        <v>0.06451612903</v>
+      </c>
+    </row>
     <row r="16" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
